--- a/biology/Botanique/Tabebuia_impetiginosa/Tabebuia_impetiginosa.xlsx
+++ b/biology/Botanique/Tabebuia_impetiginosa/Tabebuia_impetiginosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Lapacho ou arbre sacré des Incas (Handroanthus impetiginosus) est un arbre appartenant à la famille des Bignoniaceae. Il pousse dans les régions subtropicales et tropicales  des Amériques depuis le Mexique jusqu'au Nord de l'Argentine. Il est l'arbre national du Paraguay[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Lapacho ou arbre sacré des Incas (Handroanthus impetiginosus) est un arbre appartenant à la famille des Bignoniaceae. Il pousse dans les régions subtropicales et tropicales  des Amériques depuis le Mexique jusqu'au Nord de l'Argentine. Il est l'arbre national du Paraguay.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa taille maximale est de 35 m.
 Sa floraison dure de mai à août. Ses nombreuses fleurs sont roses et en forme de cloche.
@@ -544,7 +558,9 @@
           <t>Utilisation médicinale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bois est précieux car il possède des vertus médicinales qui étaient déjà connues des populations indigènes qui le consommaient en décoction. 
 Il est aujourd'hui utilisé en phytothérapie.
